--- a/GetYourGuides_2_Selenium_Testing_Project/TestData/InputData.xlsx
+++ b/GetYourGuides_2_Selenium_Testing_Project/TestData/InputData.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249228\Desktop\SDET_Module_2_Selenium_Testing_Project\SDET_Module_2_Selenium_Testing_Project\GetYourGuides_2_Selenium_Testing_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C71EB9D-CD06-4925-BAC1-995E153E02CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DDC51A-4409-4052-A2A7-6BF742719FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WishList" sheetId="4" r:id="rId1"/>
-    <sheet name="SignUp" sheetId="1" r:id="rId2"/>
-    <sheet name="LogIn" sheetId="2" r:id="rId3"/>
-    <sheet name="BookGuide" sheetId="3" r:id="rId4"/>
+    <sheet name="InvalidSignUp" sheetId="6" r:id="rId1"/>
+    <sheet name="WishList" sheetId="4" r:id="rId2"/>
+    <sheet name="SignUp" sheetId="1" r:id="rId3"/>
+    <sheet name="InvalidLogIn" sheetId="5" r:id="rId4"/>
+    <sheet name="LogIn" sheetId="2" r:id="rId5"/>
+    <sheet name="BookGuide" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -34,9 +36,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
     <t>Abcd EF</t>
   </si>
   <si>
@@ -73,7 +72,22 @@
     <t>WishListName</t>
   </si>
   <si>
-    <t>Chealse1</t>
+    <t>abcpoii@gmail.com</t>
+  </si>
+  <si>
+    <t>abcd@1234</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>abcdef@gmail.com</t>
+  </si>
+  <si>
+    <t>abbc@gmail.com</t>
+  </si>
+  <si>
+    <t>football1</t>
   </si>
 </sst>
 </file>
@@ -406,6 +420,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229B8F9-4E77-4EDD-8FA8-A35519B80D36}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6A641856-A687-4FCA-BA13-1DEA259C83BD}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{978C0B22-DEC3-4EF7-922F-19BCCA8EB059}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0C3ED4-DAF4-414B-8BB6-60C0C2CEDA9F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -417,24 +472,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -446,12 +501,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -468,28 +523,98 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:abcd@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C2" r:id="rId2" tooltip="mailto:Abcd@1234" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC30E8-144E-4803-A348-71F5D4923BB6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:abcpoi@gmail.com" xr:uid="{F3637305-E922-44D3-B231-F696F73302D4}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{2D1DF0A4-506B-4E0F-8E7B-78FB61BAD87A}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:Abcd@1234" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -497,70 +622,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="mailto:abcpoi@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" tooltip="mailto:Abcd@1234" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
-  <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -569,7 +659,7 @@
         <v>234565</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
